--- a/varianciacluster3.xlsx
+++ b/varianciacluster3.xlsx
@@ -88,13 +88,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.018592415762288712</v>
+        <v>0.007322876086211143</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0035456742026188743</v>
+        <v>0.0012432732300641524</v>
       </c>
       <c r="D2" t="n">
-        <v>7.427184040913546E-7</v>
+        <v>0.0010486442636764466</v>
       </c>
     </row>
     <row r="3">
@@ -102,13 +102,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0035456742026188743</v>
+        <v>0.0012432732300641524</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03647170356783472</v>
+        <v>0.023353742897078898</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.8727927923624632E-6</v>
+        <v>-0.007418827009095742</v>
       </c>
     </row>
     <row r="4">
@@ -116,13 +116,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.427184040913546E-7</v>
+        <v>0.0010486442636764466</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.8727927923624632E-6</v>
+        <v>-0.007418827009095742</v>
       </c>
       <c r="D4" t="n">
-        <v>1.2314785624211854E-6</v>
+        <v>0.27576381735822375</v>
       </c>
     </row>
   </sheetData>
